--- a/Project Outputs for Power Distribution Unit 2019/Power Distribution Unit 2019.xlsx
+++ b/Project Outputs for Power Distribution Unit 2019/Power Distribution Unit 2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TannerOleksiuk\Documents\GitHub\PDU2019\Project Outputs for Power Distribution Unit 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BD6DCEC0-0AB4-40AA-B1F5-71F7A5CEDC86}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CCD04E8C-7C85-491B-AC6F-795A625B387C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{EEAE26A0-BBDF-496F-9D7F-FFF146187249}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="182">
   <si>
     <t>Comment</t>
   </si>
@@ -565,6 +565,12 @@
   </si>
   <si>
     <t>Heatsink for MOSFET</t>
+  </si>
+  <si>
+    <t>Enclosure</t>
+  </si>
+  <si>
+    <t>HM214-ND</t>
   </si>
 </sst>
 </file>
@@ -960,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B35A3-4F5E-46FB-AB16-A0AEF5E1DC7E}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,17 +1952,30 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="7">
+      <c r="F44" s="7"/>
+      <c r="G44" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7">
         <f>SUM(F2:F43)</f>
         <v>136</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G45" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
